--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T11:54:44+00:00</t>
+    <t>2021-11-15T20:01:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T20:01:03+00:00</t>
+    <t>2021-11-15T21:31:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T21:31:09+00:00</t>
+    <t>2021-11-16T16:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4598" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4600" uniqueCount="573">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,13 +54,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T16:14:46+00:00</t>
+    <t>2021-11-17T14:56:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>xxxYour Work Group</t>
+    <t>My Organization</t>
   </si>
   <si>
     <t>Contact</t>
@@ -1914,7 +1914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2002,75 +2002,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>34</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T14:56:33+00:00</t>
+    <t>2021-11-17T15:09:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T15:09:39+00:00</t>
+    <t>2021-11-17T15:17:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T15:17:13+00:00</t>
+    <t>2021-11-17T16:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T16:08:54+00:00</t>
+    <t>2021-11-17T21:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T21:36:43+00:00</t>
+    <t>2021-11-17T21:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T21:44:27+00:00</t>
+    <t>2021-11-17T21:59:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T21:59:02+00:00</t>
+    <t>2021-11-17T23:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T23:11:23+00:00</t>
+    <t>2021-11-17T23:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T23:19:27+00:00</t>
+    <t>2021-11-17T23:25:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T23:25:26+00:00</t>
+    <t>2021-11-17T23:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T23:29:57+00:00</t>
+    <t>2021-11-17T23:45:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T23:45:15+00:00</t>
+    <t>2021-11-17T23:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T23:54:30+00:00</t>
+    <t>2021-11-18T00:00:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T00:00:05+00:00</t>
+    <t>2021-11-18T17:51:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T17:51:27+00:00</t>
+    <t>2022-03-11T14:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-MappedCapability.xlsx
+++ b/branches/master/StructureDefinition-MappedCapability.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-06T03:30:47+00:00</t>
+    <t>2023-12-06T03:31:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
